--- a/InputDataCoalUpdated.xlsx
+++ b/InputDataCoalUpdated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simoneosei/Documents/GitHub/ffrm_python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zl17868/Documents/ffrm_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF039AAE-6848-B04A-8233-4B8750451D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E2C87C-5172-A84A-B47A-C56B4E47C02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoalPlantData" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="101">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -916,12 +916,12 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A15"/>
+      <selection activeCell="A16" sqref="A16:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" customWidth="1"/>
+    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="5" width="13.83203125" customWidth="1"/>
@@ -1260,9 +1260,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A16" s="3"/>
       <c r="B16" s="6" t="s">
         <v>0</v>
       </c>
@@ -1283,9 +1281,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="6" t="s">
         <v>0</v>
       </c>
@@ -1306,9 +1302,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A18" s="3"/>
       <c r="B18" s="6" t="s">
         <v>0</v>
       </c>
@@ -1329,9 +1323,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="6" t="s">
         <v>0</v>
       </c>
@@ -3787,13 +3779,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="31" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13249,7 +13241,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:K33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13341,7 +13335,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
-        <f t="shared" ref="A5:A23" si="0">A4+1</f>
+        <f t="shared" ref="A5:A33" si="0">A4+1</f>
         <v>2022</v>
       </c>
       <c r="B5" s="11">
@@ -14082,31 +14076,381 @@
         <v>0.67466069000507511</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2.1908344190476199</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1.61642955640051</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1.3984974952381</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1.28052865296804</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1.1954705631659099</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1.1345047716895</v>
+      </c>
+      <c r="H24" s="11">
+        <v>1.01229800196367</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0.90847234906138896</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0.82517252409944197</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0.674660690005075</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21">
+        <f t="shared" si="0"/>
+        <v>2042</v>
+      </c>
+      <c r="B25" s="11">
+        <v>2.1908344190476199</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1.61642955640051</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1.3984974952381</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1.28052865296804</v>
+      </c>
+      <c r="F25" s="11">
+        <v>1.1954705631659099</v>
+      </c>
+      <c r="G25" s="11">
+        <v>1.1345047716895</v>
+      </c>
+      <c r="H25" s="11">
+        <v>1.01229800196367</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0.90847234906138896</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0.82517252409944197</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0.674660690005075</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21">
+        <f t="shared" si="0"/>
+        <v>2043</v>
+      </c>
+      <c r="B26" s="11">
+        <v>2.1908344190476199</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1.61642955640051</v>
+      </c>
+      <c r="D26" s="11">
+        <v>1.3984974952381</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1.28052865296804</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1.1954705631659099</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1.1345047716895</v>
+      </c>
+      <c r="H26" s="11">
+        <v>1.01229800196367</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0.90847234906138896</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0.82517252409944197</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0.674660690005075</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21">
+        <f t="shared" si="0"/>
+        <v>2044</v>
+      </c>
+      <c r="B27" s="11">
+        <v>2.1908344190476199</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1.61642955640051</v>
+      </c>
+      <c r="D27" s="11">
+        <v>1.3984974952381</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1.28052865296804</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1.1954705631659099</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1.1345047716895</v>
+      </c>
+      <c r="H27" s="11">
+        <v>1.01229800196367</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0.90847234906138896</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0.82517252409944197</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0.674660690005075</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21">
+        <f t="shared" si="0"/>
+        <v>2045</v>
+      </c>
+      <c r="B28" s="11">
+        <v>2.1908344190476199</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1.61642955640051</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1.3984974952381</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1.28052865296804</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1.1954705631659099</v>
+      </c>
+      <c r="G28" s="11">
+        <v>1.1345047716895</v>
+      </c>
+      <c r="H28" s="11">
+        <v>1.01229800196367</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0.90847234906138896</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0.82517252409944197</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0.674660690005075</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="B29" s="11">
+        <v>2.1908344190476199</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1.61642955640051</v>
+      </c>
+      <c r="D29" s="11">
+        <v>1.3984974952381</v>
+      </c>
+      <c r="E29" s="11">
+        <v>1.28052865296804</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1.1954705631659099</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1.1345047716895</v>
+      </c>
+      <c r="H29" s="11">
+        <v>1.01229800196367</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0.90847234906138896</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0.82517252409944197</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0.674660690005075</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21">
+        <f t="shared" si="0"/>
+        <v>2047</v>
+      </c>
+      <c r="B30" s="11">
+        <v>2.1908344190476199</v>
+      </c>
+      <c r="C30" s="11">
+        <v>1.61642955640051</v>
+      </c>
+      <c r="D30" s="11">
+        <v>1.3984974952381</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1.28052865296804</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1.1954705631659099</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1.1345047716895</v>
+      </c>
+      <c r="H30" s="11">
+        <v>1.01229800196367</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0.90847234906138896</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0.82517252409944197</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0.674660690005075</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="B31" s="11">
+        <v>2.1908344190476199</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1.61642955640051</v>
+      </c>
+      <c r="D31" s="11">
+        <v>1.3984974952381</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1.28052865296804</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1.1954705631659099</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1.1345047716895</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1.01229800196367</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0.90847234906138896</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0.82517252409944197</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0.674660690005075</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21">
+        <f t="shared" si="0"/>
+        <v>2049</v>
+      </c>
+      <c r="B32" s="11">
+        <v>2.1908344190476199</v>
+      </c>
+      <c r="C32" s="11">
+        <v>1.61642955640051</v>
+      </c>
+      <c r="D32" s="11">
+        <v>1.3984974952381</v>
+      </c>
+      <c r="E32" s="11">
+        <v>1.28052865296804</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1.1954705631659099</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1.1345047716895</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1.01229800196367</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0.90847234906138896</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0.82517252409944197</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0.674660690005075</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+      <c r="B33" s="11">
+        <v>2.1908344190476199</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1.61642955640051</v>
+      </c>
+      <c r="D33" s="11">
+        <v>1.3984974952381</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1.28052865296804</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1.1954705631659099</v>
+      </c>
+      <c r="G33" s="11">
+        <v>1.1345047716895</v>
+      </c>
+      <c r="H33" s="11">
+        <v>1.01229800196367</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0.90847234906138896</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0.82517252409944197</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0.674660690005075</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/InputDataCoalUpdated.xlsx
+++ b/InputDataCoalUpdated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zl17868/Documents/ffrm_python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simoneosei/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E2C87C-5172-A84A-B47A-C56B4E47C02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93B7CFE9-058E-EC4F-9A11-65FA34010644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoalPlantData" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="3Js69AaEjZ5bIr7Y5PRTh6zK79fC2K3w2RvHGx9lp7Q="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="bCGWCVGbGUX/bHNOLdtmLPeaDdGhe1lCzAZH3sSgF+A="/>
     </ext>
   </extLst>
 </workbook>
@@ -46,43 +46,96 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABh27RCNo
-tc={66E65CE2-1E53-4759-8EA4-F42CEA1417D8}    (2025-05-30 06:14:16)
-[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Please update if possible with FY21 data</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>======
-ID#AAABh27RCNw
-tc={6AC4797B-387D-4100-BBD0-C66BC47AE38F}    (2025-05-30 06:14:16)
-[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Please update if possible with FY21 data</t>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAABh27RCNw
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">tc={6AC4797B-387D-4100-BBD0-C66BC47AE38F}    (2025-05-30 06:14:16)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Comment:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    Please update if possible with FY21 data</t>
         </r>
       </text>
     </comment>
@@ -91,18 +144,91 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>======
-ID#AAABh27RCNs
-tc={5E828024-7DFB-4B20-9CD2-17590E019624}    (2025-05-30 06:14:16)
-[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Set at 90% of FY21 level - if no better data available - we need a scenario with a sharper drop (it can't be more than 90% I presume)</t>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAABh27RCNs
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">tc={5E828024-7DFB-4B20-9CD2-17590E019624}    (2025-05-30 06:14:16)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Comment:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    Set at 90% of FY21 level - if no better data available - we need a scenario with a sharper drop (it can't be more than 90% I presume)</t>
         </r>
       </text>
     </comment>
@@ -111,32 +237,108 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>======
-ID#AAABh27RCNk
-tc={CECFB0A2-BF66-4B51-8943-FAC585230701}    (2025-05-30 06:14:16)
-[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Set at 80% of FY21 - again needs a better number</t>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAABh27RCNk
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">tc={CECFB0A2-BF66-4B51-8943-FAC585230701}    (2025-05-30 06:14:16)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Comment:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    Set at 80% of FY21 - again needs a better number</t>
         </r>
       </text>
     </comment>
   </commentList>
   <extLst>
     <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhg0/foeo9DuDSIxkM0iQJywvJuLg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miBcXKSqy4BOAXRhJlBy2RiPvdCvQ=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
+  <si>
+    <t>Plant level data for avg generation cost ($/MWh), capacity in 2020 and commissioning year [PLATTS data for the last two]</t>
+  </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -157,6 +359,57 @@
   </si>
   <si>
     <t>STARTYEAR</t>
+  </si>
+  <si>
+    <t>AKSA GHANA HFO POWER PLANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMANDI POWER STATION </t>
+  </si>
+  <si>
+    <t>BRIDGE POWER STATION (UNIT 1)</t>
+  </si>
+  <si>
+    <t>BRIDGE POWER STATION (UNIT 2)</t>
+  </si>
+  <si>
+    <t>KARPOWERSHIP (GHANA) OSMAN KHAN POWER STATION</t>
+  </si>
+  <si>
+    <t>KPONE IPP (KIPP) POWER STATION</t>
+  </si>
+  <si>
+    <t>KPONE THERMAL POWER PLANT (UNIT 1)</t>
+  </si>
+  <si>
+    <t>KPONE THERMAL POWER PLANT (UNIT 2)</t>
+  </si>
+  <si>
+    <t>SUNON ASOGLI POWER STATION (UNIT 1)</t>
+  </si>
+  <si>
+    <t>SUNON ASOGLI POWER STATION (UNIT 2)</t>
+  </si>
+  <si>
+    <t>TAKORADI (TAPCO) 1 THERMAL POWER PLANT</t>
+  </si>
+  <si>
+    <t>TAKORADI (TAPCO) 3 THERMAL POWER PLANT</t>
+  </si>
+  <si>
+    <t>TAKORADI (TICO) THERMAL POWER PLANT</t>
+  </si>
+  <si>
+    <t>TEMA CENIT THERMAL POWER PLANT (TCTPP)</t>
+  </si>
+  <si>
+    <t>TEMA THERMAL POWER COMPLEX (UNIT 1)</t>
+  </si>
+  <si>
+    <t>TEMA THERMAL POWER COMPLEX (UNIT 2)</t>
+  </si>
+  <si>
+    <t>PPA fixed cost at 85% PLF expressed in $/MW/year (undiscounted)</t>
   </si>
   <si>
     <t>2021</t>
@@ -249,6 +502,9 @@
     <t>2050</t>
   </si>
   <si>
+    <t>Average revenue earned by ALL plants in $/MWh either from market or from a PPA and total coal generation forecast in TWh</t>
+  </si>
+  <si>
     <t>Marginal Revenue ($/MWh) under Market and PPA regime [Avg Price]</t>
   </si>
   <si>
@@ -262,6 +518,9 @@
   </si>
   <si>
     <t>AD</t>
+  </si>
+  <si>
+    <t>Price distribution (multiple of average price in Price_Gen over the years A3-K24 in different time blocks and % of time in each time block in column O)</t>
   </si>
   <si>
     <t>Peak1</t>
@@ -345,40 +604,22 @@
     <t>Max life beyond which plant must be retired</t>
   </si>
   <si>
-    <t>Current Coal Capacity (residual capacity GW)</t>
+    <t>Current Coal Capacity (residual capacity) (GW)</t>
   </si>
   <si>
-    <t>Capacity due for decomissioning before 2030 (retired) - align with Osemosys - GW</t>
+    <t>Capacity due for decomissioning before 2030 (GW)</t>
   </si>
   <si>
-    <t xml:space="preserve">Capacity in 2030 BAU - GW </t>
-  </si>
-  <si>
-    <t>Coal Generatio 2030 BAU - TWH</t>
-  </si>
-  <si>
-    <t>Coal Generatio 2040 BAU - TWH</t>
-  </si>
-  <si>
-    <t>New Capacity 2030 BAU - GW</t>
+    <t>Capacity in 2030 BAU</t>
   </si>
   <si>
     <t>Generation - New Capacity (70% PLF)</t>
   </si>
   <si>
-    <t>Generation - Old Capacity 2021 BAU -TWH</t>
+    <t>Current Coal Capacity AD</t>
   </si>
   <si>
-    <t>Generation - Old Capacity 2030 BAU</t>
-  </si>
-  <si>
-    <t>Generation - Old Capacity 2040 BAU</t>
-  </si>
-  <si>
-    <t>Current Coal Capacity - AD</t>
-  </si>
-  <si>
-    <t>Capacity due for decomissioning before 2030 - AD</t>
+    <t>Capacity due for decomissioning before 2030</t>
   </si>
   <si>
     <t>Capacity in 2030 AD</t>
@@ -402,43 +643,25 @@
     <t>Generation - Old Capacity 2030 AD</t>
   </si>
   <si>
-    <t>Generation - Old Capacity 204 AD</t>
+    <t>Coal Generatio 2030 BAU (TWh)</t>
   </si>
   <si>
-    <t>PLANT1_MORUPULE_A_POWER_STATION_UNIT_1</t>
+    <t>Coal Generatio 2040 BAU (TWh)</t>
   </si>
   <si>
-    <t>PLANT3_MORUPULE_A_POWER_STATION_UNIT_3</t>
+    <t>New Capacity 2030 BAU (GW)</t>
   </si>
   <si>
-    <t xml:space="preserve">PLANT12_MMAMABULA_ENERGY_PROJECT_UNIT_4 </t>
+    <t>Generation - Old Capacity 2021 BAU (GW)</t>
   </si>
   <si>
-    <t>PLANT11_MMAMABULA_ENERGY_PROJECT_UNIT_3</t>
+    <t>Generation - Old Capacity 2030 BAU (GW)</t>
   </si>
   <si>
-    <t>PLANT10_MMAMABULA_ENERGY_PROJECT_UNIT_2</t>
+    <t>Generation - Old Capacity 2040 BAU (GW)</t>
   </si>
   <si>
-    <t xml:space="preserve">PLANT9_MMAMABULA_ENERGY_PROJECT_UNIT_1 </t>
-  </si>
-  <si>
-    <t>PLANT4_MORUPULE_A_POWER_STATION_UNIT_4</t>
-  </si>
-  <si>
-    <t>PLANT5_MORUPULE_B_POWER_STATION_UNIT_1</t>
-  </si>
-  <si>
-    <t>PLANT8_MORUPULE_B_POWER_STATION_UNIT_4</t>
-  </si>
-  <si>
-    <t>PLANT6_MORUPULE_B_POWER_STATION_UNIT_2</t>
-  </si>
-  <si>
-    <t>PLANT7_MORUPULE_B_POWER_STATION_UNIT_3</t>
-  </si>
-  <si>
-    <t>PLANT2_MORUPULE_A_POWER_STATION_UNIT_2</t>
+    <t>Generation - Old Capacity 2040 AD</t>
   </si>
 </sst>
 </file>
@@ -471,6 +694,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -490,13 +720,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,7 +727,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,6 +756,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
   </fills>
@@ -633,71 +868,72 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,13 +1151,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="5" width="13.83203125" customWidth="1"/>
@@ -931,416 +1167,434 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6">
-        <v>5.8959999999999999</v>
+        <v>9.4779999999999998</v>
       </c>
       <c r="C4" s="6">
-        <v>58.33</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7">
-        <f t="shared" ref="D4:D15" si="0">B4+C4</f>
-        <v>64.225999999999999</v>
+        <f t="shared" ref="D4:D19" si="0">B4+C4</f>
+        <v>34.478000000000002</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" ref="E4:E15" si="1">3000/72</f>
+        <f t="shared" ref="E4:E19" si="1">3000/72</f>
         <v>41.666666666666664</v>
       </c>
       <c r="F4" s="9">
-        <v>33</v>
+        <v>370</v>
       </c>
       <c r="G4" s="3">
-        <v>1986</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6">
-        <v>5.8959999999999999</v>
+        <v>9.4779999999999998</v>
       </c>
       <c r="C5" s="6">
-        <v>58.33</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>64.225999999999999</v>
+        <v>34.478000000000002</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
       <c r="F5" s="9">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="G5" s="3">
-        <v>1986</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="B6" s="6">
-        <v>5.8959999999999999</v>
+        <v>9.4779999999999998</v>
       </c>
       <c r="C6" s="6">
-        <v>58.33</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>64.225999999999999</v>
+        <v>34.478000000000002</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
       <c r="F6" s="9">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="G6" s="3">
-        <v>1987</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6">
-        <v>5.8959999999999999</v>
+        <v>9.4779999999999998</v>
       </c>
       <c r="C7" s="6">
-        <v>58.33</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>64.225999999999999</v>
+        <v>34.478000000000002</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
       <c r="F7" s="9">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="G7" s="3">
-        <v>1989</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6">
-        <v>5.8959999999999999</v>
+        <v>9.4779999999999998</v>
       </c>
       <c r="C8" s="6">
-        <v>58.33</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>64.225999999999999</v>
+        <v>34.478000000000002</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
       <c r="F8" s="9">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="G8" s="3">
-        <v>2013</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6">
-        <v>5.8959999999999999</v>
+        <v>9.4779999999999998</v>
       </c>
       <c r="C9" s="6">
-        <v>58.33</v>
+        <v>25</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>64.225999999999999</v>
+        <v>34.478000000000002</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
       <c r="F9" s="9">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="G9" s="3">
-        <v>2013</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="B10" s="6">
-        <v>5.8959999999999999</v>
+        <v>9.4779999999999998</v>
       </c>
       <c r="C10" s="6">
-        <v>58.33</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
-        <v>64.225999999999999</v>
+        <v>34.478000000000002</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
       <c r="F10" s="9">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="G10" s="3">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="B11" s="6">
-        <v>5.8959999999999999</v>
+        <v>9.4779999999999998</v>
       </c>
       <c r="C11" s="6">
-        <v>58.33</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
-        <v>64.225999999999999</v>
+        <v>34.478000000000002</v>
       </c>
       <c r="E11" s="8">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
       <c r="F11" s="9">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="G11" s="3">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6">
-        <v>5.8959999999999999</v>
+        <v>9.4779999999999998</v>
       </c>
       <c r="C12" s="6">
-        <v>58.33</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
-        <v>64.225999999999999</v>
+        <v>34.478000000000002</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
       <c r="F12" s="9">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3">
-        <v>2026</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="B13" s="6">
-        <v>5.8959999999999999</v>
+        <v>9.4779999999999998</v>
       </c>
       <c r="C13" s="6">
-        <v>58.33</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>64.225999999999999</v>
+        <v>34.478000000000002</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
       <c r="F13" s="9">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="G13" s="3">
-        <v>2027</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="B14" s="6">
-        <v>5.8959999999999999</v>
+        <v>9.4779999999999998</v>
       </c>
       <c r="C14" s="6">
-        <v>58.33</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="0"/>
-        <v>64.225999999999999</v>
+        <v>34.478000000000002</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
       <c r="F14" s="9">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="G14" s="3">
-        <v>2027</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="B15" s="6">
-        <v>5.8959999999999999</v>
+        <v>9.4779999999999998</v>
       </c>
       <c r="C15" s="6">
-        <v>58.33</v>
+        <v>25</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="0"/>
-        <v>64.225999999999999</v>
+        <v>34.478000000000002</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
       <c r="F15" s="9">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="G15" s="3">
-        <v>2027</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>0</v>
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6">
+        <v>9.4779999999999998</v>
+      </c>
+      <c r="C16" s="6">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>34.478000000000002</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="F16" s="9">
+        <v>320</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2014</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>0</v>
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="6">
+        <v>9.4779999999999998</v>
+      </c>
+      <c r="C17" s="6">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>34.478000000000002</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="F17" s="9">
+        <v>110</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2012</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>0</v>
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="6">
+        <v>9.4779999999999998</v>
+      </c>
+      <c r="C18" s="6">
+        <v>25</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>34.478000000000002</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="F18" s="9">
+        <v>110</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2008</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>0</v>
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="6">
+        <v>9.4779999999999998</v>
+      </c>
+      <c r="C19" s="6">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>34.478000000000002</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="F19" s="9">
+        <v>80</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2010</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -3780,1277 +4034,1219 @@
   <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
     <col min="2" max="31" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="14" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="T5" s="14" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="W5" s="15" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="Y5" s="15" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Z5" s="15" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="AA5" s="15" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AB5" s="15" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="AC5" s="15" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="AD5" s="15" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="AE5" s="15" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="B6" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="C6" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="D6" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="E6" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="F6" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="G6" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="H6" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="I6" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="J6" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="K6" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="L6" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="M6" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="N6" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="O6" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="P6" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="Q6" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="R6" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="S6" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="T6" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="U6" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="V6" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="W6" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="X6" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="Y6" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="Z6" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="AA6" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="AB6" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="AC6" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="17">
-        <v>0</v>
-      </c>
+        <v>186150</v>
+      </c>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="B7" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="C7" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="D7" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="E7" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="F7" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="G7" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="H7" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="I7" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="J7" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="K7" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="L7" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="M7" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="N7" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="O7" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="P7" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="Q7" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="R7" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="S7" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="T7" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="U7" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="V7" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="W7" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="X7" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="Y7" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="Z7" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="AA7" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="AB7" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="AC7" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="AD7" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="17">
-        <v>0</v>
-      </c>
+        <v>186150</v>
+      </c>
+      <c r="AE7" s="17"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="B8" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="C8" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="D8" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="E8" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="F8" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="G8" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="H8" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="I8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="J8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="K8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="L8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="M8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="N8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="O8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="P8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="Q8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="R8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="S8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="T8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="U8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="V8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="W8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="X8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="Y8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="Z8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="AA8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="AB8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="AC8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="AD8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="AE8" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="B9" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="C9" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="D9" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="E9" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="F9" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="G9" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="H9" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="I9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="J9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="K9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="L9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="M9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="N9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="O9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="P9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="Q9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="R9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="S9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="T9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="U9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="V9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="W9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="X9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="Y9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="Z9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="AA9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="AB9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="AC9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="AD9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="AE9" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="B10" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="C10" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="D10" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="E10" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="F10" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="G10" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="H10" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="I10" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="J10" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="K10" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="L10" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="M10" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="N10" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="O10" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="P10" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="Q10" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="R10" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="S10" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="T10" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="U10" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="V10" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="W10" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="X10" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="Y10" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="Z10" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="AA10" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="AB10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="17">
-        <v>0</v>
-      </c>
+        <v>186150</v>
+      </c>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="B11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="C11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="D11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="E11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="F11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="G11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="H11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="I11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="J11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="K11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="L11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="M11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="N11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="O11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="P11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="Q11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="R11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="S11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="T11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="U11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="V11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="W11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="X11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="Y11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="Z11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="AA11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="AB11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="AC11" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="AD11" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AE11" s="17">
-        <v>434325.18</v>
-      </c>
+        <v>186150</v>
+      </c>
+      <c r="AE11" s="17"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="B12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="C12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="D12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="E12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="F12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="G12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="H12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="I12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="J12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="K12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="L12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="M12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="N12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="O12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="P12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="Q12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="R12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="S12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="T12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="U12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="V12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="W12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="X12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="Y12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="Z12" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="AA12" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AB12" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AC12" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AD12" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AE12" s="17">
-        <v>434325.18</v>
-      </c>
+        <v>186150</v>
+      </c>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="B13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="C13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="D13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="E13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="F13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="G13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="H13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="I13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="J13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="K13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="L13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="M13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="N13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="O13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="P13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="Q13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="R13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="S13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="T13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="U13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="V13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="W13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="X13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="Y13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="Z13" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="AA13" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AB13" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AC13" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AD13" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AE13" s="17">
-        <v>434325.18</v>
-      </c>
+        <v>186150</v>
+      </c>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B14" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="C14" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="D14" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="E14" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="F14" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="G14" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="H14" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="I14" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="J14" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="K14" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="L14" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="M14" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="N14" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="O14" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="P14" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="Q14" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="R14" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="S14" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="T14" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="U14" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="V14" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="W14" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="X14" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="Y14" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="Z14" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AA14" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AB14" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AC14" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AD14" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AE14" s="17">
-        <v>434325.18</v>
-      </c>
+        <v>186150</v>
+      </c>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="B15" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="C15" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="D15" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="E15" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="F15" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="G15" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="H15" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="I15" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="J15" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="K15" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="L15" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="M15" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="N15" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="O15" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="P15" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="Q15" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="R15" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="S15" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="T15" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="U15" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="V15" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="W15" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="X15" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="Y15" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="Z15" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="AA15" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="AB15" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AC15" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AD15" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AE15" s="17">
-        <v>434325.18</v>
-      </c>
+        <v>186150</v>
+      </c>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="B16" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="C16" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="D16" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="E16" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="F16" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="G16" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="H16" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="I16" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="J16" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="K16" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="L16" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="M16" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="N16" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="O16" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="P16" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="Q16" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="R16" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="S16" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="T16" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="U16" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="V16" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="W16" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="X16" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="Y16" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="Z16" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AA16" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AB16" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AC16" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AD16" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AE16" s="17">
-        <v>434325.18</v>
-      </c>
+        <v>186150</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="B17" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="C17" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="D17" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="E17" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="F17" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="G17" s="17">
-        <v>0</v>
+        <v>186150</v>
       </c>
       <c r="H17" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="I17" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="J17" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="K17" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="L17" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="M17" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="N17" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="O17" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="P17" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="Q17" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="R17" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="S17" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="T17" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="U17" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="V17" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="W17" s="17">
-        <v>434325.18</v>
+        <v>186150</v>
       </c>
       <c r="X17" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="Y17" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="Z17" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AA17" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AB17" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AC17" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AD17" s="17">
-        <v>434325.18</v>
-      </c>
-      <c r="AE17" s="17">
-        <v>434325.18</v>
-      </c>
+        <v>186150</v>
+      </c>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
+      <c r="A18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="C18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="D18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="E18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="F18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="G18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="H18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="I18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="J18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="K18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="L18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="M18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="N18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="O18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="P18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="R18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="S18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="T18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="U18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="V18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="W18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="X18" s="17">
+        <v>186150</v>
+      </c>
+      <c r="Y18" s="17">
+        <v>186150</v>
+      </c>
       <c r="Z18" s="17"/>
       <c r="AA18" s="17"/>
       <c r="AB18" s="17"/>
@@ -5059,29 +5255,75 @@
       <c r="AE18" s="17"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
+      <c r="A19" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="17">
+        <v>186150</v>
+      </c>
+      <c r="C19" s="17">
+        <v>186150</v>
+      </c>
+      <c r="D19" s="17">
+        <v>186150</v>
+      </c>
+      <c r="E19" s="17">
+        <v>186150</v>
+      </c>
+      <c r="F19" s="17">
+        <v>186150</v>
+      </c>
+      <c r="G19" s="17">
+        <v>186150</v>
+      </c>
+      <c r="H19" s="17">
+        <v>186150</v>
+      </c>
+      <c r="I19" s="17">
+        <v>186150</v>
+      </c>
+      <c r="J19" s="17">
+        <v>186150</v>
+      </c>
+      <c r="K19" s="17">
+        <v>186150</v>
+      </c>
+      <c r="L19" s="17">
+        <v>186150</v>
+      </c>
+      <c r="M19" s="17">
+        <v>186150</v>
+      </c>
+      <c r="N19" s="17">
+        <v>186150</v>
+      </c>
+      <c r="O19" s="17">
+        <v>186150</v>
+      </c>
+      <c r="P19" s="17">
+        <v>186150</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>186150</v>
+      </c>
+      <c r="R19" s="17">
+        <v>186150</v>
+      </c>
+      <c r="S19" s="17">
+        <v>186150</v>
+      </c>
+      <c r="T19" s="17">
+        <v>186150</v>
+      </c>
+      <c r="U19" s="17">
+        <v>186150</v>
+      </c>
+      <c r="V19" s="17">
+        <v>186150</v>
+      </c>
+      <c r="W19" s="17">
+        <v>186150</v>
+      </c>
       <c r="X19" s="17"/>
       <c r="Y19" s="17"/>
       <c r="Z19" s="17"/>
@@ -5092,25 +5334,63 @@
       <c r="AE19" s="17"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
+      <c r="A20" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="17">
+        <v>186150</v>
+      </c>
+      <c r="C20" s="17">
+        <v>186150</v>
+      </c>
+      <c r="D20" s="17">
+        <v>186150</v>
+      </c>
+      <c r="E20" s="17">
+        <v>186150</v>
+      </c>
+      <c r="F20" s="17">
+        <v>186150</v>
+      </c>
+      <c r="G20" s="17">
+        <v>186150</v>
+      </c>
+      <c r="H20" s="17">
+        <v>186150</v>
+      </c>
+      <c r="I20" s="17">
+        <v>186150</v>
+      </c>
+      <c r="J20" s="17">
+        <v>186150</v>
+      </c>
+      <c r="K20" s="17">
+        <v>186150</v>
+      </c>
+      <c r="L20" s="17">
+        <v>186150</v>
+      </c>
+      <c r="M20" s="17">
+        <v>186150</v>
+      </c>
+      <c r="N20" s="17">
+        <v>186150</v>
+      </c>
+      <c r="O20" s="17">
+        <v>186150</v>
+      </c>
+      <c r="P20" s="17">
+        <v>186150</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>186150</v>
+      </c>
+      <c r="R20" s="17">
+        <v>186150</v>
+      </c>
+      <c r="S20" s="17">
+        <v>186150</v>
+      </c>
       <c r="T20" s="17"/>
       <c r="U20" s="17"/>
       <c r="V20" s="17"/>
@@ -5125,27 +5405,69 @@
       <c r="AE20" s="17"/>
     </row>
     <row r="21" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
+      <c r="A21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="17">
+        <v>186150</v>
+      </c>
+      <c r="C21" s="17">
+        <v>186150</v>
+      </c>
+      <c r="D21" s="17">
+        <v>186150</v>
+      </c>
+      <c r="E21" s="17">
+        <v>186150</v>
+      </c>
+      <c r="F21" s="17">
+        <v>186150</v>
+      </c>
+      <c r="G21" s="17">
+        <v>186150</v>
+      </c>
+      <c r="H21" s="17">
+        <v>186150</v>
+      </c>
+      <c r="I21" s="17">
+        <v>186150</v>
+      </c>
+      <c r="J21" s="17">
+        <v>186150</v>
+      </c>
+      <c r="K21" s="17">
+        <v>186150</v>
+      </c>
+      <c r="L21" s="17">
+        <v>186150</v>
+      </c>
+      <c r="M21" s="17">
+        <v>186150</v>
+      </c>
+      <c r="N21" s="17">
+        <v>186150</v>
+      </c>
+      <c r="O21" s="17">
+        <v>186150</v>
+      </c>
+      <c r="P21" s="17">
+        <v>186150</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>186150</v>
+      </c>
+      <c r="R21" s="17">
+        <v>186150</v>
+      </c>
+      <c r="S21" s="17">
+        <v>186150</v>
+      </c>
+      <c r="T21" s="17">
+        <v>186150</v>
+      </c>
+      <c r="U21" s="17">
+        <v>186150</v>
+      </c>
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
@@ -11459,9 +11781,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11475,39 +11799,41 @@
     <col min="10" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19"/>
-      <c r="B2" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="38"/>
+      <c r="B2" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="39"/>
       <c r="F2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" s="19" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>2021</v>
       </c>
@@ -11516,23 +11842,27 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C4" s="22">
-        <v>64.225999999999999</v>
-      </c>
-      <c r="D4" s="23">
-        <v>4.95</v>
+        <f t="shared" ref="C4:C33" si="1">4000/72</f>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="D4">
+        <v>13.807</v>
       </c>
       <c r="E4" s="23">
-        <v>4.95</v>
+        <v>13.807</v>
       </c>
       <c r="F4" s="24">
-        <f t="shared" ref="F4:F33" si="1">D4*1000000/(8760*0.6)</f>
-        <v>941.78082191780823</v>
+        <f t="shared" ref="F4:F33" si="2">D4*1000000/(8760*0.6)</f>
+        <v>2626.9025875190259</v>
       </c>
       <c r="I4" s="25"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
-        <f t="shared" ref="A5:A33" si="2">A4+1</f>
+        <f t="shared" ref="A5:A33" si="3">A4+1</f>
         <v>2022</v>
       </c>
       <c r="B5" s="22">
@@ -11540,24 +11870,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C5" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D5" s="26">
         <f>D4+($D$13-$D$4)/($A$13-$A$4)</f>
-        <v>4.8515163865822224</v>
+        <v>13.653588888888889</v>
       </c>
       <c r="E5" s="26">
-        <f t="shared" ref="E5:E12" si="3">E4+(E$13-E$4)/($A$13-$A$4)</f>
-        <v>4.8463510000000003</v>
+        <f t="shared" ref="E5:E12" si="4">E4+(E$13-E$4)/($A$13-$A$4)</f>
+        <v>12.502064333333333</v>
       </c>
       <c r="F5" s="24">
-        <f t="shared" si="1"/>
-        <v>923.04345254608495</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2597.7147809910366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2023</v>
       </c>
       <c r="B6" s="22">
@@ -11565,24 +11896,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C6" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D6" s="26">
-        <f t="shared" ref="D6:D12" si="4">D5+($D$13-$D$4)/($A$13-$A$4-1)</f>
-        <v>4.7407223214872225</v>
+        <f t="shared" ref="D6:D12" si="5">D5+($D$13-$D$4)/($A$13-$A$4-1)</f>
+        <v>13.481001388888888</v>
       </c>
       <c r="E6" s="26">
+        <f t="shared" si="4"/>
+        <v>11.197128666666666</v>
+      </c>
+      <c r="F6" s="24">
+        <f t="shared" si="2"/>
+        <v>2564.8784986470487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
         <f t="shared" si="3"/>
-        <v>4.7427020000000004</v>
-      </c>
-      <c r="F6" s="24">
-        <f t="shared" si="1"/>
-        <v>901.96391200289622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
-        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
       <c r="B7" s="22">
@@ -11590,24 +11922,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C7" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D7" s="26">
+        <f t="shared" si="5"/>
+        <v>13.308413888888888</v>
+      </c>
+      <c r="E7" s="26">
         <f t="shared" si="4"/>
-        <v>4.6299282563922226</v>
-      </c>
-      <c r="E7" s="26">
+        <v>9.8921929999999989</v>
+      </c>
+      <c r="F7" s="24">
+        <f t="shared" si="2"/>
+        <v>2532.0422163030607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
         <f t="shared" si="3"/>
-        <v>4.6390530000000005</v>
-      </c>
-      <c r="F7" s="24">
-        <f t="shared" si="1"/>
-        <v>880.88437145970749</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
-        <f t="shared" si="2"/>
         <v>2025</v>
       </c>
       <c r="B8" s="22">
@@ -11615,24 +11948,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C8" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D8" s="26">
+        <f t="shared" si="5"/>
+        <v>13.135826388888887</v>
+      </c>
+      <c r="E8" s="26">
         <f t="shared" si="4"/>
-        <v>4.5191341912972227</v>
-      </c>
-      <c r="E8" s="26">
+        <v>8.5872573333333317</v>
+      </c>
+      <c r="F8" s="24">
+        <f t="shared" si="2"/>
+        <v>2499.2059339590728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
         <f t="shared" si="3"/>
-        <v>4.5354040000000007</v>
-      </c>
-      <c r="F8" s="24">
-        <f t="shared" si="1"/>
-        <v>859.80483091651877</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
-        <f t="shared" si="2"/>
         <v>2026</v>
       </c>
       <c r="B9" s="22">
@@ -11640,24 +11974,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C9" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D9" s="26">
+        <f t="shared" si="5"/>
+        <v>12.963238888888887</v>
+      </c>
+      <c r="E9" s="26">
         <f t="shared" si="4"/>
-        <v>4.4083401262022228</v>
-      </c>
-      <c r="E9" s="26">
+        <v>7.2823216666666655</v>
+      </c>
+      <c r="F9" s="24">
+        <f t="shared" si="2"/>
+        <v>2466.3696516150849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="21">
         <f t="shared" si="3"/>
-        <v>4.4317550000000008</v>
-      </c>
-      <c r="F9" s="24">
-        <f t="shared" si="1"/>
-        <v>838.72529037333004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
-        <f t="shared" si="2"/>
         <v>2027</v>
       </c>
       <c r="B10" s="22">
@@ -11665,24 +12000,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C10" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D10" s="26">
+        <f t="shared" si="5"/>
+        <v>12.790651388888886</v>
+      </c>
+      <c r="E10" s="26">
         <f t="shared" si="4"/>
-        <v>4.2975460611072229</v>
-      </c>
-      <c r="E10" s="26">
+        <v>5.9773859999999992</v>
+      </c>
+      <c r="F10" s="24">
+        <f t="shared" si="2"/>
+        <v>2433.5333692710969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
         <f t="shared" si="3"/>
-        <v>4.3281060000000009</v>
-      </c>
-      <c r="F10" s="24">
-        <f t="shared" si="1"/>
-        <v>817.64574983014131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
-        <f t="shared" si="2"/>
         <v>2028</v>
       </c>
       <c r="B11" s="22">
@@ -11690,24 +12026,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C11" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D11" s="26">
+        <f t="shared" si="5"/>
+        <v>12.618063888888885</v>
+      </c>
+      <c r="E11" s="26">
         <f t="shared" si="4"/>
-        <v>4.186751996012223</v>
-      </c>
-      <c r="E11" s="26">
+        <v>4.6724503333333329</v>
+      </c>
+      <c r="F11" s="24">
+        <f t="shared" si="2"/>
+        <v>2400.6970869271095</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
         <f t="shared" si="3"/>
-        <v>4.224457000000001</v>
-      </c>
-      <c r="F11" s="24">
-        <f t="shared" si="1"/>
-        <v>796.56620928695258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
-        <f t="shared" si="2"/>
         <v>2029</v>
       </c>
       <c r="B12" s="22">
@@ -11715,24 +12052,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C12" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D12" s="26">
+        <f t="shared" si="5"/>
+        <v>12.445476388888885</v>
+      </c>
+      <c r="E12" s="26">
         <f t="shared" si="4"/>
-        <v>4.0759579309172231</v>
-      </c>
-      <c r="E12" s="26">
+        <v>3.3675146666666667</v>
+      </c>
+      <c r="F12" s="24">
+        <f t="shared" si="2"/>
+        <v>2367.8608045831211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="21">
         <f t="shared" si="3"/>
-        <v>4.1208080000000011</v>
-      </c>
-      <c r="F12" s="24">
-        <f t="shared" si="1"/>
-        <v>775.48666874376386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
-        <f t="shared" si="2"/>
         <v>2030</v>
       </c>
       <c r="B13" s="22">
@@ -11740,26 +12078,24 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C13" s="22">
-        <v>64.225999999999999</v>
-      </c>
-      <c r="D13" s="26">
-        <v>4.0636474792400001</v>
-      </c>
-      <c r="E13" s="27">
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="D13" s="27">
+        <v>12.426300000000001</v>
+      </c>
+      <c r="E13" s="28">
         <f>'Input Calculation'!B24</f>
-        <v>4.0171590000000004</v>
+        <v>2.0625790000000004</v>
       </c>
       <c r="F13" s="24">
-        <f t="shared" si="1"/>
-        <v>773.14449757229841</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2364.2123287671238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2031</v>
       </c>
       <c r="B14" s="22">
@@ -11767,24 +12103,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C14" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D14" s="26">
-        <f t="shared" ref="D14:D22" si="5">D13+($D$23-$D$13)/($A$23-$A$13)</f>
-        <v>4.3152827313160005</v>
+        <f t="shared" ref="D14:D22" si="6">D13+($D$23-$D$13)/($A$23-$A$13)</f>
+        <v>12.28823</v>
       </c>
       <c r="E14" s="26">
-        <f t="shared" ref="E14:E22" si="6">E13+($E$23-$E$13)/($A$23-$A$13)</f>
-        <v>4.13595443</v>
+        <f t="shared" ref="E14:E22" si="7">E13+($E$23-$E$13)/($A$23-$A$13)</f>
+        <v>2.2592831000000002</v>
       </c>
       <c r="F14" s="24">
-        <f t="shared" si="1"/>
-        <v>821.02030656697116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2337.9433028919329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2032</v>
       </c>
       <c r="B15" s="22">
@@ -11792,24 +12129,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C15" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D15" s="26">
-        <f t="shared" si="5"/>
-        <v>4.5669179833920008</v>
+        <f t="shared" si="6"/>
+        <v>12.15016</v>
       </c>
       <c r="E15" s="26">
-        <f t="shared" si="6"/>
-        <v>4.2547498600000004</v>
+        <f t="shared" si="7"/>
+        <v>2.4559872</v>
       </c>
       <c r="F15" s="24">
-        <f t="shared" si="1"/>
-        <v>868.89611556164402</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2311.674277016743</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2033</v>
       </c>
       <c r="B16" s="22">
@@ -11817,24 +12155,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C16" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D16" s="26">
-        <f t="shared" si="5"/>
-        <v>4.8185532354680012</v>
+        <f t="shared" si="6"/>
+        <v>12.012089999999999</v>
       </c>
       <c r="E16" s="26">
-        <f t="shared" si="6"/>
-        <v>4.3735452900000009</v>
+        <f t="shared" si="7"/>
+        <v>2.6526912999999999</v>
       </c>
       <c r="F16" s="24">
-        <f t="shared" si="1"/>
-        <v>916.77192455631678</v>
+        <f t="shared" si="2"/>
+        <v>2285.4052511415521</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2034</v>
       </c>
       <c r="B17" s="22">
@@ -11842,24 +12181,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C17" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D17" s="26">
-        <f t="shared" si="5"/>
-        <v>5.0701884875440015</v>
+        <f t="shared" si="6"/>
+        <v>11.874019999999998</v>
       </c>
       <c r="E17" s="26">
-        <f t="shared" si="6"/>
-        <v>4.4923407200000014</v>
+        <f t="shared" si="7"/>
+        <v>2.8493953999999997</v>
       </c>
       <c r="F17" s="24">
-        <f t="shared" si="1"/>
-        <v>964.64773355098953</v>
+        <f t="shared" si="2"/>
+        <v>2259.1362252663621</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2035</v>
       </c>
       <c r="B18" s="22">
@@ -11867,24 +12207,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C18" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D18" s="26">
-        <f t="shared" si="5"/>
-        <v>5.3218237396200019</v>
+        <f t="shared" si="6"/>
+        <v>11.735949999999997</v>
       </c>
       <c r="E18" s="26">
-        <f t="shared" si="6"/>
-        <v>4.6111361500000019</v>
+        <f t="shared" si="7"/>
+        <v>3.0460994999999995</v>
       </c>
       <c r="F18" s="24">
-        <f t="shared" si="1"/>
-        <v>1012.5235425456625</v>
+        <f t="shared" si="2"/>
+        <v>2232.8671993911717</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2036</v>
       </c>
       <c r="B19" s="22">
@@ -11892,24 +12233,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C19" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D19" s="26">
-        <f t="shared" si="5"/>
-        <v>5.5734589916960022</v>
+        <f t="shared" si="6"/>
+        <v>11.597879999999996</v>
       </c>
       <c r="E19" s="26">
-        <f t="shared" si="6"/>
-        <v>4.7299315800000024</v>
+        <f t="shared" si="7"/>
+        <v>3.2428035999999993</v>
       </c>
       <c r="F19" s="24">
-        <f t="shared" si="1"/>
-        <v>1060.3993515403351</v>
+        <f t="shared" si="2"/>
+        <v>2206.5981735159812</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2037</v>
       </c>
       <c r="B20" s="22">
@@ -11917,24 +12259,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C20" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D20" s="26">
-        <f t="shared" si="5"/>
-        <v>5.8250942437720026</v>
+        <f t="shared" si="6"/>
+        <v>11.459809999999996</v>
       </c>
       <c r="E20" s="26">
-        <f t="shared" si="6"/>
-        <v>4.8487270100000028</v>
+        <f t="shared" si="7"/>
+        <v>3.4395076999999992</v>
       </c>
       <c r="F20" s="24">
-        <f t="shared" si="1"/>
-        <v>1108.2751605350081</v>
+        <f t="shared" si="2"/>
+        <v>2180.3291476407908</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2038</v>
       </c>
       <c r="B21" s="22">
@@ -11942,24 +12285,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C21" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D21" s="26">
-        <f t="shared" si="5"/>
-        <v>6.0767294958480029</v>
+        <f t="shared" si="6"/>
+        <v>11.321739999999995</v>
       </c>
       <c r="E21" s="26">
-        <f t="shared" si="6"/>
-        <v>4.9675224400000033</v>
+        <f t="shared" si="7"/>
+        <v>3.636211799999999</v>
       </c>
       <c r="F21" s="24">
-        <f t="shared" si="1"/>
-        <v>1156.1509695296809</v>
+        <f t="shared" si="2"/>
+        <v>2154.0601217656003</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2039</v>
       </c>
       <c r="B22" s="22">
@@ -11967,24 +12311,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C22" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D22" s="26">
-        <f t="shared" si="5"/>
-        <v>6.3283647479240033</v>
+        <f t="shared" si="6"/>
+        <v>11.183669999999994</v>
       </c>
       <c r="E22" s="26">
-        <f t="shared" si="6"/>
-        <v>5.0863178700000038</v>
+        <f t="shared" si="7"/>
+        <v>3.8329158999999988</v>
       </c>
       <c r="F22" s="24">
-        <f t="shared" si="1"/>
-        <v>1204.0267785243536</v>
+        <f t="shared" si="2"/>
+        <v>2127.7910958904099</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2040</v>
       </c>
       <c r="B23" s="22">
@@ -11992,26 +12337,27 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C23" s="22">
-        <v>64.225999999999999</v>
-      </c>
-      <c r="D23" s="29">
-        <v>6.58</v>
-      </c>
-      <c r="E23" s="27">
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="D23" s="27">
+        <v>11.0456</v>
+      </c>
+      <c r="E23" s="28">
         <f>'Input Calculation'!B25</f>
-        <v>5.2051133000000007</v>
+        <v>4.0296199999999995</v>
       </c>
       <c r="F23" s="24">
-        <f t="shared" si="1"/>
-        <v>1251.9025875190259</v>
+        <f t="shared" si="2"/>
+        <v>2101.5220700152208</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2041</v>
       </c>
       <c r="B24" s="22">
@@ -12019,24 +12365,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C24" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D24" s="26">
-        <f t="shared" ref="D24:D33" si="7">D23+($D$23-$D$13)/($A$23-$A$13)</f>
-        <v>6.8316352520760004</v>
+        <f t="shared" ref="D24:D33" si="8">D23+($D$23-$D$13)/($A$23-$A$13)</f>
+        <v>10.90753</v>
       </c>
       <c r="E24" s="26">
-        <f t="shared" ref="E24:E33" si="8">E23+($E$23-$E$13)/($A$23-$A$13)</f>
-        <v>5.3239087300000012</v>
+        <f t="shared" ref="E24:E33" si="9">E23+($E$23-$E$13)/($A$23-$A$13)</f>
+        <v>4.2263240999999994</v>
       </c>
       <c r="F24" s="24">
-        <f t="shared" si="1"/>
-        <v>1299.7783965136987</v>
+        <f t="shared" si="2"/>
+        <v>2075.2530441400304</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2042</v>
       </c>
       <c r="B25" s="22">
@@ -12044,24 +12391,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C25" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D25" s="26">
-        <f t="shared" si="7"/>
-        <v>7.0832705041520008</v>
+        <f t="shared" si="8"/>
+        <v>10.769459999999999</v>
       </c>
       <c r="E25" s="26">
-        <f t="shared" si="8"/>
-        <v>5.4427041600000017</v>
+        <f t="shared" si="9"/>
+        <v>4.4230281999999992</v>
       </c>
       <c r="F25" s="24">
-        <f t="shared" si="1"/>
-        <v>1347.6542055083717</v>
+        <f t="shared" si="2"/>
+        <v>2048.98401826484</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2043</v>
       </c>
       <c r="B26" s="22">
@@ -12069,24 +12417,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C26" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D26" s="26">
-        <f t="shared" si="7"/>
-        <v>7.3349057562280011</v>
+        <f t="shared" si="8"/>
+        <v>10.631389999999998</v>
       </c>
       <c r="E26" s="26">
-        <f t="shared" si="8"/>
-        <v>5.5614995900000022</v>
+        <f t="shared" si="9"/>
+        <v>4.619732299999999</v>
       </c>
       <c r="F26" s="24">
-        <f t="shared" si="1"/>
-        <v>1395.5300145030444</v>
+        <f t="shared" si="2"/>
+        <v>2022.7149923896495</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2044</v>
       </c>
       <c r="B27" s="22">
@@ -12094,24 +12443,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C27" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D27" s="26">
-        <f t="shared" si="7"/>
-        <v>7.5865410083040015</v>
+        <f t="shared" si="8"/>
+        <v>10.493319999999997</v>
       </c>
       <c r="E27" s="26">
-        <f t="shared" si="8"/>
-        <v>5.6802950200000026</v>
+        <f t="shared" si="9"/>
+        <v>4.8164363999999988</v>
       </c>
       <c r="F27" s="24">
-        <f t="shared" si="1"/>
-        <v>1443.4058234977172</v>
+        <f t="shared" si="2"/>
+        <v>1996.4459665144589</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2045</v>
       </c>
       <c r="B28" s="22">
@@ -12119,24 +12469,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C28" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D28" s="26">
-        <f t="shared" si="7"/>
-        <v>7.8381762603800018</v>
+        <f t="shared" si="8"/>
+        <v>10.355249999999996</v>
       </c>
       <c r="E28" s="26">
-        <f t="shared" si="8"/>
-        <v>5.7990904500000031</v>
+        <f t="shared" si="9"/>
+        <v>5.0131404999999987</v>
       </c>
       <c r="F28" s="24">
-        <f t="shared" si="1"/>
-        <v>1491.2816324923899</v>
+        <f t="shared" si="2"/>
+        <v>1970.1769406392687</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2046</v>
       </c>
       <c r="B29" s="22">
@@ -12144,24 +12495,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C29" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D29" s="26">
-        <f t="shared" si="7"/>
-        <v>8.0898115124560022</v>
+        <f t="shared" si="8"/>
+        <v>10.217179999999995</v>
       </c>
       <c r="E29" s="26">
-        <f t="shared" si="8"/>
-        <v>5.9178858800000036</v>
+        <f t="shared" si="9"/>
+        <v>5.2098445999999985</v>
       </c>
       <c r="F29" s="24">
-        <f t="shared" si="1"/>
-        <v>1539.1574414870627</v>
+        <f t="shared" si="2"/>
+        <v>1943.9079147640784</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2047</v>
       </c>
       <c r="B30" s="22">
@@ -12169,24 +12521,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C30" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D30" s="26">
-        <f t="shared" si="7"/>
-        <v>8.3414467645320016</v>
+        <f t="shared" si="8"/>
+        <v>10.079109999999995</v>
       </c>
       <c r="E30" s="26">
-        <f t="shared" si="8"/>
-        <v>6.0366813100000041</v>
+        <f t="shared" si="9"/>
+        <v>5.4065486999999983</v>
       </c>
       <c r="F30" s="24">
-        <f t="shared" si="1"/>
-        <v>1587.0332504817354</v>
+        <f t="shared" si="2"/>
+        <v>1917.6388888888878</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2048</v>
       </c>
       <c r="B31" s="22">
@@ -12194,24 +12547,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C31" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D31" s="26">
-        <f t="shared" si="7"/>
-        <v>8.5930820166080011</v>
+        <f t="shared" si="8"/>
+        <v>9.9410399999999939</v>
       </c>
       <c r="E31" s="26">
-        <f t="shared" si="8"/>
-        <v>6.1554767400000046</v>
+        <f t="shared" si="9"/>
+        <v>5.6032527999999981</v>
       </c>
       <c r="F31" s="24">
-        <f t="shared" si="1"/>
-        <v>1634.9090594764082</v>
+        <f t="shared" si="2"/>
+        <v>1891.3698630136976</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2049</v>
       </c>
       <c r="B32" s="22">
@@ -12219,24 +12573,25 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C32" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D32" s="26">
-        <f t="shared" si="7"/>
-        <v>8.8447172686840005</v>
+        <f t="shared" si="8"/>
+        <v>9.8029699999999931</v>
       </c>
       <c r="E32" s="26">
-        <f t="shared" si="8"/>
-        <v>6.274272170000005</v>
+        <f t="shared" si="9"/>
+        <v>5.799956899999998</v>
       </c>
       <c r="F32" s="24">
-        <f t="shared" si="1"/>
-        <v>1682.7848684710807</v>
+        <f t="shared" si="2"/>
+        <v>1865.1008371385069</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2050</v>
       </c>
       <c r="B33" s="22">
@@ -12244,19 +12599,20 @@
         <v>41.666666666666664</v>
       </c>
       <c r="C33" s="22">
-        <v>64.225999999999999</v>
+        <f t="shared" si="1"/>
+        <v>55.555555555555557</v>
       </c>
       <c r="D33" s="26">
-        <f t="shared" si="7"/>
-        <v>9.09635252076</v>
+        <f t="shared" si="8"/>
+        <v>9.6648999999999923</v>
       </c>
       <c r="E33" s="26">
-        <f t="shared" si="8"/>
-        <v>6.3930676000000055</v>
+        <f t="shared" si="9"/>
+        <v>5.9966609999999978</v>
       </c>
       <c r="F33" s="24">
-        <f t="shared" si="1"/>
-        <v>1730.6606774657535</v>
+        <f t="shared" si="2"/>
+        <v>1838.8318112633167</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13241,9 +13597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:K33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13253,43 +13607,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
       <c r="B3" s="21" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N3" s="21"/>
       <c r="O3" s="21" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -13327,15 +13683,15 @@
         <v>0.67466069000507511</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="30">
+        <v>62</v>
+      </c>
+      <c r="O4" s="29">
         <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
-        <f t="shared" ref="A5:A33" si="0">A4+1</f>
+        <f t="shared" ref="A5:A23" si="0">A4+1</f>
         <v>2022</v>
       </c>
       <c r="B5" s="11">
@@ -13369,9 +13725,9 @@
         <v>0.67466069000507511</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="30">
+        <v>63</v>
+      </c>
+      <c r="O5" s="29">
         <v>0.03</v>
       </c>
     </row>
@@ -13411,9 +13767,9 @@
         <v>0.67466069000507511</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="30">
+        <v>64</v>
+      </c>
+      <c r="O6" s="29">
         <v>0.04</v>
       </c>
     </row>
@@ -13453,9 +13809,9 @@
         <v>0.67466069000507511</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="30">
+        <v>65</v>
+      </c>
+      <c r="O7" s="29">
         <v>0.05</v>
       </c>
     </row>
@@ -13495,9 +13851,9 @@
         <v>0.67466069000507511</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="30">
+        <v>66</v>
+      </c>
+      <c r="O8" s="29">
         <v>0.05</v>
       </c>
     </row>
@@ -13537,9 +13893,9 @@
         <v>0.67466069000507511</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="30">
+        <v>67</v>
+      </c>
+      <c r="O9" s="29">
         <v>0.05</v>
       </c>
     </row>
@@ -13579,9 +13935,9 @@
         <v>0.67466069000507511</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="30">
+        <v>68</v>
+      </c>
+      <c r="O10" s="29">
         <v>0.31</v>
       </c>
     </row>
@@ -13621,9 +13977,9 @@
         <v>0.67466069000507511</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11" s="30">
+        <v>69</v>
+      </c>
+      <c r="O11" s="29">
         <v>0.15</v>
       </c>
     </row>
@@ -13663,9 +14019,9 @@
         <v>0.67466069000507511</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O12" s="30">
+        <v>70</v>
+      </c>
+      <c r="O12" s="29">
         <v>0.15</v>
       </c>
     </row>
@@ -13705,9 +14061,9 @@
         <v>0.67466069000507511</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" s="30">
+        <v>71</v>
+      </c>
+      <c r="O13" s="29">
         <v>0.15</v>
       </c>
     </row>
@@ -13747,7 +14103,7 @@
         <v>0.67466069000507511</v>
       </c>
       <c r="N14" s="21"/>
-      <c r="O14" s="30">
+      <c r="O14" s="29">
         <f>SUM(O4:O13)</f>
         <v>1</v>
       </c>
@@ -14076,381 +14432,31 @@
         <v>0.67466069000507511</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
-        <f t="shared" si="0"/>
-        <v>2041</v>
-      </c>
-      <c r="B24" s="11">
-        <v>2.1908344190476199</v>
-      </c>
-      <c r="C24" s="11">
-        <v>1.61642955640051</v>
-      </c>
-      <c r="D24" s="11">
-        <v>1.3984974952381</v>
-      </c>
-      <c r="E24" s="11">
-        <v>1.28052865296804</v>
-      </c>
-      <c r="F24" s="11">
-        <v>1.1954705631659099</v>
-      </c>
-      <c r="G24" s="11">
-        <v>1.1345047716895</v>
-      </c>
-      <c r="H24" s="11">
-        <v>1.01229800196367</v>
-      </c>
-      <c r="I24" s="11">
-        <v>0.90847234906138896</v>
-      </c>
-      <c r="J24" s="11">
-        <v>0.82517252409944197</v>
-      </c>
-      <c r="K24" s="11">
-        <v>0.674660690005075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
-        <f t="shared" si="0"/>
-        <v>2042</v>
-      </c>
-      <c r="B25" s="11">
-        <v>2.1908344190476199</v>
-      </c>
-      <c r="C25" s="11">
-        <v>1.61642955640051</v>
-      </c>
-      <c r="D25" s="11">
-        <v>1.3984974952381</v>
-      </c>
-      <c r="E25" s="11">
-        <v>1.28052865296804</v>
-      </c>
-      <c r="F25" s="11">
-        <v>1.1954705631659099</v>
-      </c>
-      <c r="G25" s="11">
-        <v>1.1345047716895</v>
-      </c>
-      <c r="H25" s="11">
-        <v>1.01229800196367</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0.90847234906138896</v>
-      </c>
-      <c r="J25" s="11">
-        <v>0.82517252409944197</v>
-      </c>
-      <c r="K25" s="11">
-        <v>0.674660690005075</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
-        <f t="shared" si="0"/>
-        <v>2043</v>
-      </c>
-      <c r="B26" s="11">
-        <v>2.1908344190476199</v>
-      </c>
-      <c r="C26" s="11">
-        <v>1.61642955640051</v>
-      </c>
-      <c r="D26" s="11">
-        <v>1.3984974952381</v>
-      </c>
-      <c r="E26" s="11">
-        <v>1.28052865296804</v>
-      </c>
-      <c r="F26" s="11">
-        <v>1.1954705631659099</v>
-      </c>
-      <c r="G26" s="11">
-        <v>1.1345047716895</v>
-      </c>
-      <c r="H26" s="11">
-        <v>1.01229800196367</v>
-      </c>
-      <c r="I26" s="11">
-        <v>0.90847234906138896</v>
-      </c>
-      <c r="J26" s="11">
-        <v>0.82517252409944197</v>
-      </c>
-      <c r="K26" s="11">
-        <v>0.674660690005075</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
-        <f t="shared" si="0"/>
-        <v>2044</v>
-      </c>
-      <c r="B27" s="11">
-        <v>2.1908344190476199</v>
-      </c>
-      <c r="C27" s="11">
-        <v>1.61642955640051</v>
-      </c>
-      <c r="D27" s="11">
-        <v>1.3984974952381</v>
-      </c>
-      <c r="E27" s="11">
-        <v>1.28052865296804</v>
-      </c>
-      <c r="F27" s="11">
-        <v>1.1954705631659099</v>
-      </c>
-      <c r="G27" s="11">
-        <v>1.1345047716895</v>
-      </c>
-      <c r="H27" s="11">
-        <v>1.01229800196367</v>
-      </c>
-      <c r="I27" s="11">
-        <v>0.90847234906138896</v>
-      </c>
-      <c r="J27" s="11">
-        <v>0.82517252409944197</v>
-      </c>
-      <c r="K27" s="11">
-        <v>0.674660690005075</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21">
-        <f t="shared" si="0"/>
-        <v>2045</v>
-      </c>
-      <c r="B28" s="11">
-        <v>2.1908344190476199</v>
-      </c>
-      <c r="C28" s="11">
-        <v>1.61642955640051</v>
-      </c>
-      <c r="D28" s="11">
-        <v>1.3984974952381</v>
-      </c>
-      <c r="E28" s="11">
-        <v>1.28052865296804</v>
-      </c>
-      <c r="F28" s="11">
-        <v>1.1954705631659099</v>
-      </c>
-      <c r="G28" s="11">
-        <v>1.1345047716895</v>
-      </c>
-      <c r="H28" s="11">
-        <v>1.01229800196367</v>
-      </c>
-      <c r="I28" s="11">
-        <v>0.90847234906138896</v>
-      </c>
-      <c r="J28" s="11">
-        <v>0.82517252409944197</v>
-      </c>
-      <c r="K28" s="11">
-        <v>0.674660690005075</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21">
-        <f t="shared" si="0"/>
-        <v>2046</v>
-      </c>
-      <c r="B29" s="11">
-        <v>2.1908344190476199</v>
-      </c>
-      <c r="C29" s="11">
-        <v>1.61642955640051</v>
-      </c>
-      <c r="D29" s="11">
-        <v>1.3984974952381</v>
-      </c>
-      <c r="E29" s="11">
-        <v>1.28052865296804</v>
-      </c>
-      <c r="F29" s="11">
-        <v>1.1954705631659099</v>
-      </c>
-      <c r="G29" s="11">
-        <v>1.1345047716895</v>
-      </c>
-      <c r="H29" s="11">
-        <v>1.01229800196367</v>
-      </c>
-      <c r="I29" s="11">
-        <v>0.90847234906138896</v>
-      </c>
-      <c r="J29" s="11">
-        <v>0.82517252409944197</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0.674660690005075</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21">
-        <f t="shared" si="0"/>
-        <v>2047</v>
-      </c>
-      <c r="B30" s="11">
-        <v>2.1908344190476199</v>
-      </c>
-      <c r="C30" s="11">
-        <v>1.61642955640051</v>
-      </c>
-      <c r="D30" s="11">
-        <v>1.3984974952381</v>
-      </c>
-      <c r="E30" s="11">
-        <v>1.28052865296804</v>
-      </c>
-      <c r="F30" s="11">
-        <v>1.1954705631659099</v>
-      </c>
-      <c r="G30" s="11">
-        <v>1.1345047716895</v>
-      </c>
-      <c r="H30" s="11">
-        <v>1.01229800196367</v>
-      </c>
-      <c r="I30" s="11">
-        <v>0.90847234906138896</v>
-      </c>
-      <c r="J30" s="11">
-        <v>0.82517252409944197</v>
-      </c>
-      <c r="K30" s="11">
-        <v>0.674660690005075</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21">
-        <f t="shared" si="0"/>
-        <v>2048</v>
-      </c>
-      <c r="B31" s="11">
-        <v>2.1908344190476199</v>
-      </c>
-      <c r="C31" s="11">
-        <v>1.61642955640051</v>
-      </c>
-      <c r="D31" s="11">
-        <v>1.3984974952381</v>
-      </c>
-      <c r="E31" s="11">
-        <v>1.28052865296804</v>
-      </c>
-      <c r="F31" s="11">
-        <v>1.1954705631659099</v>
-      </c>
-      <c r="G31" s="11">
-        <v>1.1345047716895</v>
-      </c>
-      <c r="H31" s="11">
-        <v>1.01229800196367</v>
-      </c>
-      <c r="I31" s="11">
-        <v>0.90847234906138896</v>
-      </c>
-      <c r="J31" s="11">
-        <v>0.82517252409944197</v>
-      </c>
-      <c r="K31" s="11">
-        <v>0.674660690005075</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21">
-        <f t="shared" si="0"/>
-        <v>2049</v>
-      </c>
-      <c r="B32" s="11">
-        <v>2.1908344190476199</v>
-      </c>
-      <c r="C32" s="11">
-        <v>1.61642955640051</v>
-      </c>
-      <c r="D32" s="11">
-        <v>1.3984974952381</v>
-      </c>
-      <c r="E32" s="11">
-        <v>1.28052865296804</v>
-      </c>
-      <c r="F32" s="11">
-        <v>1.1954705631659099</v>
-      </c>
-      <c r="G32" s="11">
-        <v>1.1345047716895</v>
-      </c>
-      <c r="H32" s="11">
-        <v>1.01229800196367</v>
-      </c>
-      <c r="I32" s="11">
-        <v>0.90847234906138896</v>
-      </c>
-      <c r="J32" s="11">
-        <v>0.82517252409944197</v>
-      </c>
-      <c r="K32" s="11">
-        <v>0.674660690005075</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21">
-        <f t="shared" si="0"/>
-        <v>2050</v>
-      </c>
-      <c r="B33" s="11">
-        <v>2.1908344190476199</v>
-      </c>
-      <c r="C33" s="11">
-        <v>1.61642955640051</v>
-      </c>
-      <c r="D33" s="11">
-        <v>1.3984974952381</v>
-      </c>
-      <c r="E33" s="11">
-        <v>1.28052865296804</v>
-      </c>
-      <c r="F33" s="11">
-        <v>1.1954705631659099</v>
-      </c>
-      <c r="G33" s="11">
-        <v>1.1345047716895</v>
-      </c>
-      <c r="H33" s="11">
-        <v>1.01229800196367</v>
-      </c>
-      <c r="I33" s="11">
-        <v>0.90847234906138896</v>
-      </c>
-      <c r="J33" s="11">
-        <v>0.82517252409944197</v>
-      </c>
-      <c r="K33" s="11">
-        <v>0.674660690005075</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15413,7 +15419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15424,101 +15432,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="31" t="s">
-        <v>53</v>
+      <c r="B2" s="30" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="32">
+        <v>74</v>
+      </c>
+      <c r="B3" s="31">
         <v>0.06</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="32">
+        <v>75</v>
+      </c>
+      <c r="B4" s="31">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B5" s="19">
         <v>1300</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="32">
+      <c r="A6" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="31">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>60</v>
+      <c r="C6" s="40" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="32">
+      <c r="A7" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="31">
         <v>0.01</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="41"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="32">
+      <c r="A8" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="31">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C8" s="41"/>
+      <c r="C8" s="42"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="32">
+        <v>83</v>
+      </c>
+      <c r="B9" s="31">
         <v>0.25</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="34">
+        <v>85</v>
+      </c>
+      <c r="B10" s="33">
         <v>0.85</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="35">
+        <v>87</v>
+      </c>
+      <c r="B11" s="34">
         <v>40</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16512,203 +16520,210 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:B1000"/>
+  <dimension ref="A2:C1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="26" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B2" s="19">
-        <f>732/1000</f>
-        <v>0.73199999999999998</v>
+        <f>SUM(CoalPlantData!F4:F199)/1000</f>
+        <v>3.629</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="19">
-        <f>282/1000</f>
-        <v>0.28199999999999997</v>
+        <v>90</v>
+      </c>
+      <c r="B3" s="35">
+        <f>330/1000</f>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="19">
-        <v>0.74448742999999995</v>
+        <v>91</v>
+      </c>
+      <c r="B5" s="35">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="19">
-        <v>5.8694443999999999</v>
+        <v>102</v>
+      </c>
+      <c r="B6" s="35">
+        <v>6.3609999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="19">
-        <v>6.58</v>
+        <v>103</v>
+      </c>
+      <c r="B7" s="35">
+        <v>7.1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="B8" s="19">
         <f>B5-(B2-B3)</f>
-        <v>0.29448742999999994</v>
+        <v>0.70100000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B9" s="19">
         <f>B8*70%*8.76</f>
-        <v>1.8057969207599995</v>
+        <v>4.2985319999999998</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="19">
-        <v>4.95</v>
+        <v>105</v>
+      </c>
+      <c r="B10" s="35">
+        <v>3.75</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B11" s="19">
         <f>B6-B9</f>
-        <v>4.0636474792400001</v>
+        <v>2.062468</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B12" s="19">
         <f>B7-B9</f>
-        <v>4.7742030792400003</v>
+        <v>2.8014679999999998</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="19">
-        <v>0.73199999999999998</v>
+        <v>93</v>
+      </c>
+      <c r="B14" s="35">
+        <v>3.629</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="19">
-        <v>0.28199999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="B15" s="35">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="19">
-        <v>0.71899999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="B17" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B18" s="19">
-        <v>5.6666670000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.3611110000000002</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B19" s="19">
-        <v>6.3833333000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B20" s="19">
         <f>B17-(B14-B15)</f>
-        <v>0.26899999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.70100000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B21" s="19">
         <f>B20*70%*8.76</f>
-        <v>1.6495079999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4.2985319999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B22" s="19">
         <f>B20*50%*8.76</f>
-        <v>1.1782199999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.0703800000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B23" s="19">
-        <v>4.7583333000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="36">
+        <v>101</v>
+      </c>
+      <c r="B24" s="37">
         <f t="shared" ref="B24:B25" si="0">B18-B21</f>
-        <v>4.0171590000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2.0625790000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="36">
+        <v>108</v>
+      </c>
+      <c r="B25" s="37">
         <f t="shared" si="0"/>
-        <v>5.2051133000000007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>4.0296199999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/InputDataCoalUpdated.xlsx
+++ b/InputDataCoalUpdated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zl17868/Documents/ffrm_python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simoneosei/Documents/GitHub/ffrm_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E2C87C-5172-A84A-B47A-C56B4E47C02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88235084-5EE6-8340-ADBD-ECF37550280F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16260" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoalPlantData" sheetId="1" r:id="rId1"/>
@@ -3779,8 +3779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A17"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13241,8 +13241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:K33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15413,7 +15413,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15493,7 +15495,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="32">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>64</v>
@@ -15515,7 +15517,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="35">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>68</v>
